--- a/6_publication/1_toPSAil/1_plots/8.0_css_comparisons/yang_css_comparison_data_2022_12_26_v1.xlsx
+++ b/6_publication/1_toPSAil/1_plots/8.0_css_comparisons/yang_css_comparison_data_2022_12_26_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\8.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74838549-FF32-4DF9-8F08-157DA21068B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B328422-909C-4023-9AF8-5C82E23536E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
   </bookViews>
   <sheets>
     <sheet name="yang (flow+time)" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="comparisons" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'yang (flow+event)'!$B$2:$K$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'yang (flow+time)'!$B$2:$K$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'yang (pres.+event)'!$B$2:$K$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'yang (pres.+time)'!$B$2:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'yang (flow+event)'!$B$2:$K$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'yang (flow+time)'!$B$2:$K$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'yang (pres.+event)'!$B$2:$K$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'yang (pres.+time)'!$B$2:$K$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,28 +41,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -117,10 +95,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,12 +164,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,10 +311,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>comparisons!$A$5:$A$38</c:f>
+              <c:f>comparisons!$A$5:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -421,117 +416,165 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>comparisons!$B$5:$B$38</c:f>
+              <c:f>comparisons!$B$5:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>3.7278995994794598E-3</c:v>
+                  <c:v>9.0645639303730801E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8718700786010696E-5</c:v>
+                  <c:v>4.8494882259608101E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7383240860758499E-5</c:v>
+                  <c:v>6.1647930741714495E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5121903767508806E-6</c:v>
+                  <c:v>1.2109054116809501E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1774745117015402E-6</c:v>
+                  <c:v>3.84620545391188E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3403531114963902E-6</c:v>
+                  <c:v>1.9211661829017799E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2498255164290898E-6</c:v>
+                  <c:v>1.27355974756811E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.56423460265436E-6</c:v>
+                  <c:v>9.689083460462581E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1167746779101401E-6</c:v>
+                  <c:v>7.8292398807427297E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1958715551824001E-7</c:v>
+                  <c:v>6.4971914041207399E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0792326002054502E-7</c:v>
+                  <c:v>5.4573212913636097E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7472062038454902E-7</c:v>
+                  <c:v>4.6170305178640203E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7041967936279798E-7</c:v>
+                  <c:v>3.9195875036619398E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9814097186367399E-7</c:v>
+                  <c:v>3.3385894687318402E-7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3434717759351901E-7</c:v>
+                  <c:v>2.8522749792658802E-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9053443634163499E-7</c:v>
+                  <c:v>2.4361464736355302E-7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5550663663098401E-7</c:v>
+                  <c:v>2.0108339072730999E-7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.27735489376911E-7</c:v>
+                  <c:v>1.7700074086085999E-7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.05464765827372E-7</c:v>
+                  <c:v>1.5304942682833E-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.7502814930591199E-8</c:v>
+                  <c:v>1.3561024518096501E-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.2872346796864394E-8</c:v>
+                  <c:v>1.1509915944738E-7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0892742922885401E-8</c:v>
+                  <c:v>9.8986130988037402E-8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.10545196072359E-8</c:v>
+                  <c:v>8.5634019496327797E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2901903109677401E-8</c:v>
+                  <c:v>7.4266953440042895E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.6158608319657801E-8</c:v>
+                  <c:v>6.4639400503281999E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0559191683140199E-8</c:v>
+                  <c:v>5.6254372316289502E-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5897112877766399E-8</c:v>
+                  <c:v>4.9183281698979501E-8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2012267433393001E-8</c:v>
+                  <c:v>4.3124650710294002E-8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8758633183971399E-8</c:v>
+                  <c:v>3.78819302640894E-8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6049722173442899E-8</c:v>
+                  <c:v>3.3567012086772102E-8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.37797570176161E-8</c:v>
+                  <c:v>2.9497709746373799E-8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.18768631084213E-8</c:v>
+                  <c:v>2.60500767258345E-8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.02818417656722E-8</c:v>
+                  <c:v>2.31325485416189E-8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.9419229320273003E-9</c:v>
+                  <c:v>2.0609933338497499E-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.84367304734062E-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6542312630688901E-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4907017906797201E-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3502329088975901E-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2244756374042999E-8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.11491045100028E-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0197149136051199E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.3657640566856205E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,10 +626,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>comparisons!$A$5:$A$22</c:f>
+              <c:f>comparisons!$A$5:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -640,68 +683,164 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>comparisons!$C$5:$C$22</c:f>
+              <c:f>comparisons!$C$5:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>1.1458790545155299E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6943617354941701E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5329741567603598E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8485952052823E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1212934562308401E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.63499267595737E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2745521218004401E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9983279978049302E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8559073019632803E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2000464325960903E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.91287677448832E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9042235274584902E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1104997703788502E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.48423172113745E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9890278052585199E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.59658928120499E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.28495866538801E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0370391253102E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3950802112128996E-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8184004371335497E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5591237286661E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5479584425397099E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7384731863298201E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0879177730406299E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.56438493830155E-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1421559191718999E-8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8011750887347099E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5253330328367301E-8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.30160614455253E-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.11968582146459E-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.7146797126877199E-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -754,10 +893,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>comparisons!$A$5:$A$22</c:f>
+              <c:f>comparisons!$A$5:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -811,30 +950,150 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>comparisons!$D$5:$D$22</c:f>
+              <c:f>comparisons!$D$5:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0831835053885E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.8095424653246698E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.3013278633031099E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.8041700514839502E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.9618461767615201E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3576303643415104E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4157127524716698E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9326161320973297E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0859005671857402E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3950433279754201E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8186388282054899E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.38817715536678E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0002023491715199E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6711454024358499E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.42528971099536E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2152270479162101E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9061361557608197E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5392628877543606E-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3444145500327303E-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8430933109564801E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3406178890292898E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6360321238453598E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.61300883575176E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0035999000882299E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7158174902487701E-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0976464193207899E-8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.84260731426924E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5711840766939299E-8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.385131115105E-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.21240752099985E-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.6980839842130203E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,21 +1212,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -996,10 +1240,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>comparisons!$A$5:$A$44</c:f>
+              <c:f>comparisons!$A$5:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1119,16 +1363,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>comparisons!$F$5:$F$44</c:f>
+              <c:f>comparisons!$F$5:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1E-8</c:v>
                 </c:pt>
@@ -1247,6 +1497,12 @@
                   <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>1E-8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1274,7 +1530,7 @@
         <c:axId val="454142080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="34"/>
+          <c:max val="42"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1394,6 +1650,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2489,10 +2746,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4736FB9B-CB38-4C95-8CD4-288B065D8CBF}">
-  <dimension ref="C4:H46"/>
+  <dimension ref="B4:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.0645639303730801E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.8494882259608101E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.1647930741714495E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.2109054116809501E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.84620545391188E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.9211661829017799E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.27355974756811E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9.689083460462581E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.8292398807427297E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6.4971914041207399E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.4573212913636097E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.6170305178640203E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.9195875036619398E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.3385894687318402E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.8522749792658802E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.4361464736355302E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.0108339072730999E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.7700074086085999E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.5304942682833E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="2">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.3561024518096501E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="2">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.1509915944738E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="2">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9.8986130988037402E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="2">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8.5634019496327797E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3">
+        <v>7.4266953440042895E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="2">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6.4639400503281999E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="2">
+        <v>26</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5.6254372316289502E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="2">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4.9183281698979501E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="2">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4.3124650710294002E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="2">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3.78819302640894E-8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="2">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3.3567012086772102E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="2">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.9497709746373799E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="2">
+        <v>32</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.60500767258345E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="2">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2.31325485416189E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="2">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2.0609933338497499E-8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="2">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.84367304734062E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="2">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.6542312630688901E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="2">
+        <v>37</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.4907017906797201E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="2">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.3502329088975901E-8</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="2">
+        <v>39</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.2244756374042999E-8</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.11491045100028E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="2">
+        <v>41</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.0197149136051199E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="2">
+        <v>42</v>
+      </c>
+      <c r="D46" s="3">
+        <v>9.3657640566856205E-9</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>588.40599999999995</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F49" s="2">
+        <v>42</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4">
+        <f>D49/(F49*G49)</f>
+        <v>7.004833333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>597.04700000000003</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F50" s="2">
+        <v>42</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" ref="H50:H53" si="0">D50/(F50*G50)</f>
+        <v>7.1077023809523814</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>617.95299999999997</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F51" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="0"/>
+        <v>7.356583333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>605.29700000000003</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F52" s="2">
+        <v>42</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>7.205916666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>580.92200000000003</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F53" s="2">
+        <v>42</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9157380952380958</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+      <c r="D54" s="4">
+        <f>AVERAGE(D49:D53)</f>
+        <v>597.92499999999995</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="4">
+        <f>AVERAGE(H49:H53)</f>
+        <v>7.118154761904762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C9E55D-F5B6-48CB-BCDE-74F8ACAD2118}">
+  <dimension ref="C4:H43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2518,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>3.7278995994794598E-3</v>
+        <v>1.1458790545155299E-2</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
@@ -2526,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>8.8718700786010696E-5</v>
+        <v>1.6943617354941701E-5</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
@@ -2534,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>1.7383240860758499E-5</v>
+        <v>4.5329741567603598E-6</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
@@ -2542,7 +3328,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8.5121903767508806E-6</v>
+        <v>2.8485952052823E-6</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
@@ -2550,7 +3336,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5.1774745117015402E-6</v>
+        <v>2.1212934562308401E-6</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
@@ -2558,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3.3403531114963902E-6</v>
+        <v>1.63499267595737E-6</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
@@ -2566,7 +3352,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="3">
-        <v>2.2498255164290898E-6</v>
+        <v>1.2745521218004401E-6</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
@@ -2574,7 +3360,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1.56423460265436E-6</v>
+        <v>9.9983279978049302E-7</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
@@ -2582,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>1.1167746779101401E-6</v>
+        <v>7.8559073019632803E-7</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
@@ -2590,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8.1958715551824001E-7</v>
+        <v>6.2000464325960903E-7</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
@@ -2598,7 +3384,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6.0792326002054502E-7</v>
+        <v>4.91287677448832E-7</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
@@ -2606,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="3">
-        <v>4.7472062038454902E-7</v>
+        <v>3.9042235274584902E-7</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
@@ -2614,7 +3400,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="3">
-        <v>3.7041967936279798E-7</v>
+        <v>3.1104997703788502E-7</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
@@ -2622,7 +3408,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="3">
-        <v>2.9814097186367399E-7</v>
+        <v>2.48423172113745E-7</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
@@ -2630,7 +3416,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="3">
-        <v>2.3434717759351901E-7</v>
+        <v>1.9890278052585199E-7</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
@@ -2638,7 +3424,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="3">
-        <v>1.9053443634163499E-7</v>
+        <v>1.59658928120499E-7</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
@@ -2646,7 +3432,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="3">
-        <v>1.5550663663098401E-7</v>
+        <v>1.28495866538801E-7</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
@@ -2654,7 +3440,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="3">
-        <v>1.27735489376911E-7</v>
+        <v>1.0370391253102E-7</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
@@ -2662,7 +3448,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="3">
-        <v>1.05464765827372E-7</v>
+        <v>8.3950802112128996E-8</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
@@ -2670,7 +3456,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="3">
-        <v>8.7502814930591199E-8</v>
+        <v>6.8184004371335497E-8</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
@@ -2678,7 +3464,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="3">
-        <v>7.2872346796864394E-8</v>
+        <v>5.5591237286661E-8</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
@@ -2686,7 +3472,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="3">
-        <v>6.0892742922885401E-8</v>
+        <v>4.5479584425397099E-8</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
@@ -2694,7 +3480,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>5.10545196072359E-8</v>
+        <v>3.7384731863298201E-8</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
@@ -2702,7 +3488,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="3">
-        <v>4.2901903109677401E-8</v>
+        <v>3.0879177730406299E-8</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
@@ -2710,7 +3496,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="3">
-        <v>3.6158608319657801E-8</v>
+        <v>2.56438493830155E-8</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
@@ -2718,7 +3504,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="3">
-        <v>3.0559191683140199E-8</v>
+        <v>2.1421559191718999E-8</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
@@ -2726,7 +3512,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="3">
-        <v>2.5897112877766399E-8</v>
+        <v>1.8011750887347099E-8</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
@@ -2734,7 +3520,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="3">
-        <v>2.2012267433393001E-8</v>
+        <v>1.5253330328367301E-8</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
@@ -2742,7 +3528,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="3">
-        <v>1.8758633183971399E-8</v>
+        <v>1.30160614455253E-8</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
@@ -2750,7 +3536,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="3">
-        <v>1.6049722173442899E-8</v>
+        <v>1.11968582146459E-8</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
@@ -2758,160 +3544,138 @@
         <v>31</v>
       </c>
       <c r="D35" s="3">
-        <v>1.37797570176161E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="2">
-        <v>32</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1.18768631084213E-8</v>
+        <v>9.7146797126877199E-9</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="2">
-        <v>33</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1.02818417656722E-8</v>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="2">
-        <v>34</v>
-      </c>
-      <c r="D38" s="3">
-        <v>8.9419229320273003E-9</v>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>739.375</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F38" s="2">
+        <v>31</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4">
+        <f>D38/(F38*G38)</f>
+        <v>11.925403225806452</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F39" s="2">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" ref="H39:H42" si="0">D39/(F39*G39)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F40" s="2">
+        <v>31</v>
+      </c>
+      <c r="G40" s="2">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>5</v>
+      <c r="H40" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="3">
         <v>1E-8</v>
       </c>
       <c r="F41" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G41" s="2">
         <v>2</v>
       </c>
       <c r="H41" s="4">
-        <f>D41/(F41*G41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="3">
         <v>1E-8</v>
       </c>
       <c r="F42" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G42" s="2">
         <v>2</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" ref="H42:H45" si="0">D42/(F42*G42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F43" s="2">
-        <v>17</v>
-      </c>
-      <c r="G43" s="2">
-        <v>2</v>
-      </c>
-      <c r="H43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="1">
-        <v>4</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F44" s="2">
-        <v>17</v>
-      </c>
-      <c r="G44" s="2">
-        <v>2</v>
-      </c>
-      <c r="H44" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="1">
-        <v>5</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F45" s="2">
-        <v>17</v>
-      </c>
-      <c r="G45" s="2">
-        <v>2</v>
-      </c>
-      <c r="H45" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="1"/>
-      <c r="D46" s="4" t="e">
-        <f>AVERAGE(D41:D45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="4">
-        <f>AVERAGE(H41:H45)</f>
-        <v>0</v>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="4">
+        <f>AVERAGE(D38:D42)</f>
+        <v>739.375</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="4">
+        <f>AVERAGE(H38:H42)</f>
+        <v>2.3850806451612905</v>
       </c>
     </row>
   </sheetData>
@@ -2920,12 +3684,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C9E55D-F5B6-48CB-BCDE-74F8ACAD2118}">
-  <dimension ref="C4:H50"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FAD013-A2F7-42D1-AF99-AD6B29236AE0}">
+  <dimension ref="C4:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D5:D38"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2950,339 +3714,387 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>1.0831835053885E-2</v>
+      </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2">
+        <v>4.8095424653246698E-4</v>
+      </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>5.3013278633031099E-5</v>
+      </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>7.8041700514839502E-6</v>
+      </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>1.9618461767615201E-6</v>
+      </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>9.3576303643415104E-7</v>
+      </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>6.4157127524716698E-7</v>
+      </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>4.9326161320973297E-7</v>
+      </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>4.0859005671857402E-7</v>
+      </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>3.3950433279754201E-7</v>
+      </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>2.8186388282054899E-7</v>
+      </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>12</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>2.38817715536678E-7</v>
+      </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="2">
         <v>13</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>2.0002023491715199E-7</v>
+      </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <v>14</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>1.6711454024358499E-7</v>
+      </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>15</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>1.42528971099536E-7</v>
+      </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <v>16</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>1.2152270479162101E-7</v>
+      </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <v>17</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>9.9061361557608197E-8</v>
+      </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <v>18</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>8.5392628877543606E-8</v>
+      </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="2">
         <v>19</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>7.3444145500327303E-8</v>
+      </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
         <v>20</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>5.8430933109564801E-8</v>
+      </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="2">
         <v>21</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>5.3406178890292898E-8</v>
+      </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="2">
         <v>22</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>4.6360321238453598E-8</v>
+      </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="2">
         <v>23</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>3.61300883575176E-8</v>
+      </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="2">
         <v>24</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>3.0035999000882299E-8</v>
+      </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" s="2">
         <v>25</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>2.7158174902487701E-8</v>
+      </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="2">
         <v>26</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>2.0976464193207899E-8</v>
+      </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>27</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>1.84260731426924E-8</v>
+      </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="2">
         <v>28</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>1.5711840766939299E-8</v>
+      </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>29</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>1.385131115105E-8</v>
+      </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" s="2">
         <v>30</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>1.21240752099985E-8</v>
+      </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" s="2">
         <v>31</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="2">
-        <v>32</v>
-      </c>
-      <c r="D36" s="3"/>
+      <c r="D35" s="3">
+        <v>9.6980839842130203E-9</v>
+      </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="2">
-        <v>33</v>
-      </c>
-      <c r="D37" s="3"/>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="2">
-        <v>34</v>
-      </c>
-      <c r="D38" s="3"/>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>946.14099999999996</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F38" s="2">
+        <v>31</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4">
+        <f>D38/(F38*G38)</f>
+        <v>15.260338709677418</v>
+      </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>936.28099999999995</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F39" s="2">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" ref="H39:H42" si="0">D39/(F39*G39)</f>
+        <v>15.101306451612903</v>
+      </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>951.73400000000004</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F40" s="2">
+        <v>31</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="0"/>
+        <v>15.350548387096774</v>
+      </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>913.51599999999996</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F41" s="2">
+        <v>31</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>14.734129032258064</v>
+      </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>951.23400000000004</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F42" s="2">
+        <v>31</v>
+      </c>
+      <c r="G42" s="2">
         <v>2</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2">
-        <v>2</v>
-      </c>
-      <c r="H45" s="4" t="e">
-        <f>D45/(F45*G45)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>2</v>
-      </c>
-      <c r="H46" s="4" t="e">
-        <f t="shared" ref="H46:H49" si="0">D46/(F46*G46)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2">
-        <v>2</v>
-      </c>
-      <c r="H47" s="4" t="e">
+      <c r="H42" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2">
-        <v>2</v>
-      </c>
-      <c r="H48" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2">
-        <v>2</v>
-      </c>
-      <c r="H49" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="1"/>
-      <c r="D50" s="4" t="e">
-        <f>AVERAGE(D45:D49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="4" t="e">
-        <f>AVERAGE(H45:H49)</f>
-        <v>#DIV/0!</v>
+        <v>15.342483870967742</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="4">
+        <f>AVERAGE(D38:D42)</f>
+        <v>939.78120000000001</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="4">
+        <f>AVERAGE(H38:H42)</f>
+        <v>15.157761290322579</v>
       </c>
     </row>
   </sheetData>
@@ -3291,12 +4103,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FAD013-A2F7-42D1-AF99-AD6B29236AE0}">
-  <dimension ref="C4:H17"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9269801-6C6F-463A-B27E-A31CD8816D0C}">
+  <dimension ref="C4:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="C5:D9"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3309,7 +4121,7 @@
     <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3317,313 +4129,274 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="D45" s="2"/>
+      <c r="E45" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="e">
-        <f>D12/(F12*G12)</f>
+      <c r="H45" s="4" t="e">
+        <f>D45/(F45*G45)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="D46" s="2"/>
+      <c r="E46" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="e">
-        <f t="shared" ref="H13:H16" si="0">D13/(F13*G13)</f>
+      <c r="H46" s="4" t="e">
+        <f t="shared" ref="H46:H49" si="0">D46/(F46*G46)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="D47" s="2"/>
+      <c r="E47" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="e">
+      <c r="H47" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="D48" s="2"/>
+      <c r="E48" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="e">
+      <c r="H48" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="D49" s="2"/>
+      <c r="E49" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="e">
+      <c r="H49" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="D17" s="4" t="e">
-        <f>AVERAGE(D12:D16)</f>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+      <c r="D50" s="4" t="e">
+        <f>AVERAGE(D45:D49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="4" t="e">
-        <f>AVERAGE(H12:H16)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9269801-6C6F-463A-B27E-A31CD8816D0C}">
-  <dimension ref="C4:H17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="C5:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4" t="e">
-        <f>D12/(F12*G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4" t="e">
-        <f t="shared" ref="H13:H16" si="0">D13/(F13*G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3">
-        <v>1E-8</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="D17" s="4" t="e">
-        <f>AVERAGE(D12:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="4" t="e">
-        <f>AVERAGE(H12:H16)</f>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="4" t="e">
+        <f>AVERAGE(H45:H49)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3635,15 +4408,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57299F3-5F52-4C08-BAF0-A4F2DC504CBE}">
-  <dimension ref="A2:F44"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3677,22 +4452,18 @@
       </c>
       <c r="B5">
         <f>'yang (flow+time)'!D5</f>
-        <v>3.7278995994794598E-3</v>
-      </c>
-      <c r="C5" cm="1">
-        <f t="array" ref="C5:C42">'yang (flow+event)'!D5:D42</f>
-        <v>0</v>
-      </c>
-      <c r="D5" cm="1">
-        <f t="array" ref="D5:D9">'yang (pres.+time)'!D5:D9</f>
-        <v>0</v>
-      </c>
-      <c r="E5" cm="1">
-        <f t="array" ref="E5:E9">'yang (pres.+event)'!D5:D9</f>
-        <v>0</v>
+        <v>9.0645639303730801E-3</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'yang (flow+event)'!D5</f>
+        <v>1.1458790545155299E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <f>'yang (pres.+time)'!D5</f>
+        <v>1.0831835053885E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F44" si="0">0.00000001</f>
+        <f t="shared" ref="F5:F46" si="0">0.00000001</f>
         <v>1E-8</v>
       </c>
     </row>
@@ -3702,16 +4473,15 @@
       </c>
       <c r="B6">
         <f>'yang (flow+time)'!D6</f>
-        <v>8.8718700786010696E-5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.8494882259608101E-4</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'yang (flow+event)'!D6</f>
+        <v>1.6943617354941701E-5</v>
+      </c>
+      <c r="D6" s="7">
+        <f>'yang (pres.+time)'!D6</f>
+        <v>4.8095424653246698E-4</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -3724,16 +4494,15 @@
       </c>
       <c r="B7">
         <f>'yang (flow+time)'!D7</f>
-        <v>1.7383240860758499E-5</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>6.1647930741714495E-5</v>
+      </c>
+      <c r="C7" s="6">
+        <f>'yang (flow+event)'!D7</f>
+        <v>4.5329741567603598E-6</v>
+      </c>
+      <c r="D7" s="7">
+        <f>'yang (pres.+time)'!D7</f>
+        <v>5.3013278633031099E-5</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -3746,16 +4515,15 @@
       </c>
       <c r="B8">
         <f>'yang (flow+time)'!D8</f>
-        <v>8.5121903767508806E-6</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>1.2109054116809501E-5</v>
+      </c>
+      <c r="C8" s="6">
+        <f>'yang (flow+event)'!D8</f>
+        <v>2.8485952052823E-6</v>
+      </c>
+      <c r="D8" s="7">
+        <f>'yang (pres.+time)'!D8</f>
+        <v>7.8041700514839502E-6</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -3768,16 +4536,15 @@
       </c>
       <c r="B9">
         <f>'yang (flow+time)'!D9</f>
-        <v>5.1774745117015402E-6</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>3.84620545391188E-6</v>
+      </c>
+      <c r="C9" s="6">
+        <f>'yang (flow+event)'!D9</f>
+        <v>2.1212934562308401E-6</v>
+      </c>
+      <c r="D9" s="7">
+        <f>'yang (pres.+time)'!D9</f>
+        <v>1.9618461767615201E-6</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -3790,10 +4557,15 @@
       </c>
       <c r="B10">
         <f>'yang (flow+time)'!D10</f>
-        <v>3.3403531114963902E-6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>1.9211661829017799E-6</v>
+      </c>
+      <c r="C10" s="6">
+        <f>'yang (flow+event)'!D10</f>
+        <v>1.63499267595737E-6</v>
+      </c>
+      <c r="D10" s="7">
+        <f>'yang (pres.+time)'!D10</f>
+        <v>9.3576303643415104E-7</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -3806,10 +4578,15 @@
       </c>
       <c r="B11">
         <f>'yang (flow+time)'!D11</f>
-        <v>2.2498255164290898E-6</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>1.27355974756811E-6</v>
+      </c>
+      <c r="C11" s="6">
+        <f>'yang (flow+event)'!D11</f>
+        <v>1.2745521218004401E-6</v>
+      </c>
+      <c r="D11" s="7">
+        <f>'yang (pres.+time)'!D11</f>
+        <v>6.4157127524716698E-7</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -3822,10 +4599,15 @@
       </c>
       <c r="B12">
         <f>'yang (flow+time)'!D12</f>
-        <v>1.56423460265436E-6</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>9.689083460462581E-7</v>
+      </c>
+      <c r="C12" s="6">
+        <f>'yang (flow+event)'!D12</f>
+        <v>9.9983279978049302E-7</v>
+      </c>
+      <c r="D12" s="7">
+        <f>'yang (pres.+time)'!D12</f>
+        <v>4.9326161320973297E-7</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -3838,10 +4620,15 @@
       </c>
       <c r="B13">
         <f>'yang (flow+time)'!D13</f>
-        <v>1.1167746779101401E-6</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>7.8292398807427297E-7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>'yang (flow+event)'!D13</f>
+        <v>7.8559073019632803E-7</v>
+      </c>
+      <c r="D13" s="7">
+        <f>'yang (pres.+time)'!D13</f>
+        <v>4.0859005671857402E-7</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -3854,10 +4641,15 @@
       </c>
       <c r="B14">
         <f>'yang (flow+time)'!D14</f>
-        <v>8.1958715551824001E-7</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>6.4971914041207399E-7</v>
+      </c>
+      <c r="C14" s="6">
+        <f>'yang (flow+event)'!D14</f>
+        <v>6.2000464325960903E-7</v>
+      </c>
+      <c r="D14" s="7">
+        <f>'yang (pres.+time)'!D14</f>
+        <v>3.3950433279754201E-7</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -3870,10 +4662,15 @@
       </c>
       <c r="B15">
         <f>'yang (flow+time)'!D15</f>
-        <v>6.0792326002054502E-7</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>5.4573212913636097E-7</v>
+      </c>
+      <c r="C15" s="6">
+        <f>'yang (flow+event)'!D15</f>
+        <v>4.91287677448832E-7</v>
+      </c>
+      <c r="D15" s="7">
+        <f>'yang (pres.+time)'!D15</f>
+        <v>2.8186388282054899E-7</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -3886,10 +4683,15 @@
       </c>
       <c r="B16">
         <f>'yang (flow+time)'!D16</f>
-        <v>4.7472062038454902E-7</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+        <v>4.6170305178640203E-7</v>
+      </c>
+      <c r="C16" s="6">
+        <f>'yang (flow+event)'!D16</f>
+        <v>3.9042235274584902E-7</v>
+      </c>
+      <c r="D16" s="7">
+        <f>'yang (pres.+time)'!D16</f>
+        <v>2.38817715536678E-7</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -3902,10 +4704,15 @@
       </c>
       <c r="B17">
         <f>'yang (flow+time)'!D17</f>
-        <v>3.7041967936279798E-7</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+        <v>3.9195875036619398E-7</v>
+      </c>
+      <c r="C17" s="6">
+        <f>'yang (flow+event)'!D17</f>
+        <v>3.1104997703788502E-7</v>
+      </c>
+      <c r="D17" s="7">
+        <f>'yang (pres.+time)'!D17</f>
+        <v>2.0002023491715199E-7</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -3918,10 +4725,15 @@
       </c>
       <c r="B18">
         <f>'yang (flow+time)'!D18</f>
-        <v>2.9814097186367399E-7</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+        <v>3.3385894687318402E-7</v>
+      </c>
+      <c r="C18" s="6">
+        <f>'yang (flow+event)'!D18</f>
+        <v>2.48423172113745E-7</v>
+      </c>
+      <c r="D18" s="7">
+        <f>'yang (pres.+time)'!D18</f>
+        <v>1.6711454024358499E-7</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -3934,10 +4746,15 @@
       </c>
       <c r="B19">
         <f>'yang (flow+time)'!D19</f>
-        <v>2.3434717759351901E-7</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
+        <v>2.8522749792658802E-7</v>
+      </c>
+      <c r="C19" s="6">
+        <f>'yang (flow+event)'!D19</f>
+        <v>1.9890278052585199E-7</v>
+      </c>
+      <c r="D19" s="7">
+        <f>'yang (pres.+time)'!D19</f>
+        <v>1.42528971099536E-7</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -3950,10 +4767,15 @@
       </c>
       <c r="B20">
         <f>'yang (flow+time)'!D20</f>
-        <v>1.9053443634163499E-7</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+        <v>2.4361464736355302E-7</v>
+      </c>
+      <c r="C20" s="6">
+        <f>'yang (flow+event)'!D20</f>
+        <v>1.59658928120499E-7</v>
+      </c>
+      <c r="D20" s="7">
+        <f>'yang (pres.+time)'!D20</f>
+        <v>1.2152270479162101E-7</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -3966,10 +4788,15 @@
       </c>
       <c r="B21">
         <f>'yang (flow+time)'!D21</f>
-        <v>1.5550663663098401E-7</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+        <v>2.0108339072730999E-7</v>
+      </c>
+      <c r="C21" s="6">
+        <f>'yang (flow+event)'!D21</f>
+        <v>1.28495866538801E-7</v>
+      </c>
+      <c r="D21" s="7">
+        <f>'yang (pres.+time)'!D21</f>
+        <v>9.9061361557608197E-8</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -3982,10 +4809,15 @@
       </c>
       <c r="B22">
         <f>'yang (flow+time)'!D22</f>
-        <v>1.27735489376911E-7</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+        <v>1.7700074086085999E-7</v>
+      </c>
+      <c r="C22" s="6">
+        <f>'yang (flow+event)'!D22</f>
+        <v>1.0370391253102E-7</v>
+      </c>
+      <c r="D22" s="7">
+        <f>'yang (pres.+time)'!D22</f>
+        <v>8.5392628877543606E-8</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -3998,10 +4830,15 @@
       </c>
       <c r="B23">
         <f>'yang (flow+time)'!D23</f>
-        <v>1.05464765827372E-7</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+        <v>1.5304942682833E-7</v>
+      </c>
+      <c r="C23" s="6">
+        <f>'yang (flow+event)'!D23</f>
+        <v>8.3950802112128996E-8</v>
+      </c>
+      <c r="D23" s="7">
+        <f>'yang (pres.+time)'!D23</f>
+        <v>7.3444145500327303E-8</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -4014,10 +4851,15 @@
       </c>
       <c r="B24">
         <f>'yang (flow+time)'!D24</f>
-        <v>8.7502814930591199E-8</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+        <v>1.3561024518096501E-7</v>
+      </c>
+      <c r="C24" s="6">
+        <f>'yang (flow+event)'!D24</f>
+        <v>6.8184004371335497E-8</v>
+      </c>
+      <c r="D24" s="7">
+        <f>'yang (pres.+time)'!D24</f>
+        <v>5.8430933109564801E-8</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -4030,10 +4872,15 @@
       </c>
       <c r="B25">
         <f>'yang (flow+time)'!D25</f>
-        <v>7.2872346796864394E-8</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
+        <v>1.1509915944738E-7</v>
+      </c>
+      <c r="C25" s="6">
+        <f>'yang (flow+event)'!D25</f>
+        <v>5.5591237286661E-8</v>
+      </c>
+      <c r="D25" s="7">
+        <f>'yang (pres.+time)'!D25</f>
+        <v>5.3406178890292898E-8</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -4046,10 +4893,15 @@
       </c>
       <c r="B26">
         <f>'yang (flow+time)'!D26</f>
-        <v>6.0892742922885401E-8</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
+        <v>9.8986130988037402E-8</v>
+      </c>
+      <c r="C26" s="6">
+        <f>'yang (flow+event)'!D26</f>
+        <v>4.5479584425397099E-8</v>
+      </c>
+      <c r="D26" s="7">
+        <f>'yang (pres.+time)'!D26</f>
+        <v>4.6360321238453598E-8</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -4062,10 +4914,15 @@
       </c>
       <c r="B27">
         <f>'yang (flow+time)'!D27</f>
-        <v>5.10545196072359E-8</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
+        <v>8.5634019496327797E-8</v>
+      </c>
+      <c r="C27" s="6">
+        <f>'yang (flow+event)'!D27</f>
+        <v>3.7384731863298201E-8</v>
+      </c>
+      <c r="D27" s="7">
+        <f>'yang (pres.+time)'!D27</f>
+        <v>3.61300883575176E-8</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -4078,10 +4935,15 @@
       </c>
       <c r="B28">
         <f>'yang (flow+time)'!D28</f>
-        <v>4.2901903109677401E-8</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
+        <v>7.4266953440042895E-8</v>
+      </c>
+      <c r="C28" s="6">
+        <f>'yang (flow+event)'!D28</f>
+        <v>3.0879177730406299E-8</v>
+      </c>
+      <c r="D28" s="7">
+        <f>'yang (pres.+time)'!D28</f>
+        <v>3.0035999000882299E-8</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -4094,10 +4956,15 @@
       </c>
       <c r="B29">
         <f>'yang (flow+time)'!D29</f>
-        <v>3.6158608319657801E-8</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
+        <v>6.4639400503281999E-8</v>
+      </c>
+      <c r="C29" s="6">
+        <f>'yang (flow+event)'!D29</f>
+        <v>2.56438493830155E-8</v>
+      </c>
+      <c r="D29" s="7">
+        <f>'yang (pres.+time)'!D29</f>
+        <v>2.7158174902487701E-8</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -4110,10 +4977,15 @@
       </c>
       <c r="B30">
         <f>'yang (flow+time)'!D30</f>
-        <v>3.0559191683140199E-8</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
+        <v>5.6254372316289502E-8</v>
+      </c>
+      <c r="C30" s="6">
+        <f>'yang (flow+event)'!D30</f>
+        <v>2.1421559191718999E-8</v>
+      </c>
+      <c r="D30" s="7">
+        <f>'yang (pres.+time)'!D30</f>
+        <v>2.0976464193207899E-8</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -4126,10 +4998,15 @@
       </c>
       <c r="B31">
         <f>'yang (flow+time)'!D31</f>
-        <v>2.5897112877766399E-8</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
+        <v>4.9183281698979501E-8</v>
+      </c>
+      <c r="C31" s="6">
+        <f>'yang (flow+event)'!D31</f>
+        <v>1.8011750887347099E-8</v>
+      </c>
+      <c r="D31" s="7">
+        <f>'yang (pres.+time)'!D31</f>
+        <v>1.84260731426924E-8</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -4142,10 +5019,15 @@
       </c>
       <c r="B32">
         <f>'yang (flow+time)'!D32</f>
-        <v>2.2012267433393001E-8</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+        <v>4.3124650710294002E-8</v>
+      </c>
+      <c r="C32" s="6">
+        <f>'yang (flow+event)'!D32</f>
+        <v>1.5253330328367301E-8</v>
+      </c>
+      <c r="D32" s="7">
+        <f>'yang (pres.+time)'!D32</f>
+        <v>1.5711840766939299E-8</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -4158,10 +5040,15 @@
       </c>
       <c r="B33">
         <f>'yang (flow+time)'!D33</f>
-        <v>1.8758633183971399E-8</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+        <v>3.78819302640894E-8</v>
+      </c>
+      <c r="C33" s="6">
+        <f>'yang (flow+event)'!D33</f>
+        <v>1.30160614455253E-8</v>
+      </c>
+      <c r="D33" s="7">
+        <f>'yang (pres.+time)'!D33</f>
+        <v>1.385131115105E-8</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -4174,10 +5061,15 @@
       </c>
       <c r="B34">
         <f>'yang (flow+time)'!D34</f>
-        <v>1.6049722173442899E-8</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+        <v>3.3567012086772102E-8</v>
+      </c>
+      <c r="C34" s="6">
+        <f>'yang (flow+event)'!D34</f>
+        <v>1.11968582146459E-8</v>
+      </c>
+      <c r="D34" s="7">
+        <f>'yang (pres.+time)'!D34</f>
+        <v>1.21240752099985E-8</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -4190,10 +5082,15 @@
       </c>
       <c r="B35">
         <f>'yang (flow+time)'!D35</f>
-        <v>1.37797570176161E-8</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
+        <v>2.9497709746373799E-8</v>
+      </c>
+      <c r="C35" s="6">
+        <f>'yang (flow+event)'!D35</f>
+        <v>9.7146797126877199E-9</v>
+      </c>
+      <c r="D35" s="7">
+        <f>'yang (pres.+time)'!D35</f>
+        <v>9.6980839842130203E-9</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
@@ -4206,11 +5103,13 @@
       </c>
       <c r="B36">
         <f>'yang (flow+time)'!D36</f>
-        <v>1.18768631084213E-8</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
+        <v>2.60500767258345E-8</v>
+      </c>
+      <c r="C36" s="6" t="e">
+        <f>'yang (flow+event)'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="8"/>
       <c r="F36">
         <f t="shared" si="0"/>
         <v>1E-8</v>
@@ -4222,10 +5121,11 @@
       </c>
       <c r="B37">
         <f>'yang (flow+time)'!D37</f>
-        <v>1.02818417656722E-8</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
+        <v>2.31325485416189E-8</v>
+      </c>
+      <c r="C37" s="6" t="e">
+        <f>'yang (flow+event)'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
@@ -4238,10 +5138,11 @@
       </c>
       <c r="B38">
         <f>'yang (flow+time)'!D38</f>
-        <v>8.9419229320273003E-9</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
+        <v>2.0609933338497499E-8</v>
+      </c>
+      <c r="C38" s="6" t="e">
+        <f>'yang (flow+event)'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
@@ -4252,8 +5153,9 @@
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="C39">
-        <v>0</v>
+      <c r="B39">
+        <f>'yang (flow+time)'!D39</f>
+        <v>1.84367304734062E-8</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
@@ -4264,8 +5166,9 @@
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="B40">
+        <f>'yang (flow+time)'!D40</f>
+        <v>1.6542312630688901E-8</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
@@ -4276,8 +5179,9 @@
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="C41">
-        <v>0</v>
+      <c r="B41">
+        <f>'yang (flow+time)'!D41</f>
+        <v>1.4907017906797201E-8</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
@@ -4288,8 +5192,9 @@
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="C42">
-        <v>0</v>
+      <c r="B42">
+        <f>'yang (flow+time)'!D42</f>
+        <v>1.3502329088975901E-8</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
@@ -4300,6 +5205,10 @@
       <c r="A43">
         <v>39</v>
       </c>
+      <c r="B43">
+        <f>'yang (flow+time)'!D43</f>
+        <v>1.2244756374042999E-8</v>
+      </c>
       <c r="F43">
         <f t="shared" si="0"/>
         <v>1E-8</v>
@@ -4309,7 +5218,37 @@
       <c r="A44">
         <v>40</v>
       </c>
+      <c r="B44">
+        <f>'yang (flow+time)'!D44</f>
+        <v>1.11491045100028E-8</v>
+      </c>
       <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <f>'yang (flow+time)'!D45</f>
+        <v>1.0197149136051199E-8</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <f>'yang (flow+time)'!D46</f>
+        <v>9.3657640566856205E-9</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
